--- a/public/exports/PGPR201Baru.xlsx
+++ b/public/exports/PGPR201Baru.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiazh\gp2\public\exports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3D1593-5EB6-4C63-830D-8D451D367079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B485DBEF-1441-4561-BEB7-B70ECA466BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -578,6 +578,14 @@
     <xf numFmtId="164" fontId="12" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -586,7 +594,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -621,13 +628,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -851,7 +851,7 @@
   </sheetPr>
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
@@ -872,10 +872,10 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="28"/>
+      <c r="J1" s="27"/>
       <c r="K1" s="3"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
@@ -920,18 +920,18 @@
       <c r="Z2" s="6"/>
     </row>
     <row r="3" spans="1:26" ht="20.149999999999999" customHeight="1">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -950,18 +950,18 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="20.149999999999999" customHeight="1">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -980,18 +980,18 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="20.149999999999999" customHeight="1" thickBot="1">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -1059,10 +1059,10 @@
         <v>34</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="37"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="40"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -1089,10 +1089,10 @@
         <v>33</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="37"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="40"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -1119,10 +1119,10 @@
         <v>35</v>
       </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="43"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -1145,14 +1145,14 @@
       <c r="Z10" s="6"/>
     </row>
     <row r="11" spans="1:26" ht="40" customHeight="1" thickBot="1">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="40"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="43"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -1203,20 +1203,20 @@
       <c r="Z12" s="6"/>
     </row>
     <row r="13" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="26"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="30"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -1235,24 +1235,24 @@
       <c r="Z13" s="4"/>
     </row>
     <row r="14" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A14" s="32"/>
-      <c r="B14" s="41" t="s">
+      <c r="A14" s="35"/>
+      <c r="B14" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="24" t="s">
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="26"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="30"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
@@ -1271,9 +1271,9 @@
       <c r="Z14" s="4"/>
     </row>
     <row r="15" spans="1:26" ht="74.25" customHeight="1">
-      <c r="A15" s="33"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="5" t="s">
         <v>25</v>
       </c>
@@ -1925,9 +1925,9 @@
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
       <c r="J35" s="11"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
@@ -1998,9 +1998,9 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
       <c r="J38" s="11"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
@@ -8196,10 +8196,6 @@
     <row r="1002" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="H14:J14"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A4:J4"/>
@@ -8213,6 +8209,10 @@
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="H14:J14"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
